--- a/data3.xlsx
+++ b/data3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="237">
   <si>
     <t xml:space="preserve">phrase</t>
   </si>
@@ -37,94 +37,721 @@
     <t xml:space="preserve">topics4</t>
   </si>
   <si>
-    <t xml:space="preserve">он не выдал деньги </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не выдал деньги (_Local_Didnt_Give_Money) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">банкомат не выдал деньги </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Банкоматы (_Local_ATM) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">мне нужен специалист по брокерским счетам </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Брокерский счет (_Local_Brokerage) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_General Инвестиции (_General_Investing) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Найдена карта клиента 3м лицом </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разблокировать карту (_General_UnBlock) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Украли / Потерял телефон </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Справка для гос служащего с наличием брокеских счетов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Справка (_Local_Reference) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_General Справка (_General_Reference) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не типовая справка </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вместо консультации на оператора </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хамство оператора </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сотрудник банка (_Local_Bank_Employee) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оценка сотрудника </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Претензия/Заявление </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_General Статус претензии (_General_ClaimStat) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жалоба </t>
-  </si>
-  <si>
-    <t xml:space="preserve">УВ Заявление (UV_Statement) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не проходит оплата по карте / не проходит операция по карте / карта не проходит  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карта не работает (_General_Cardnotworking) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Несанкционированное списание\снятие </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мошенничество_UNI (_General_Fraud_UNI) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мне не отвечают в чате / Долго отвечают в чате </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Без вопроса (_General_Whithout_Question) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ошибочно перевели на альфабанк </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отменить перевод (_Local_Cancel_Transfer_Payment) </t>
+    <t xml:space="preserve">Маты, обзывание, ругательство (кожаный, петух, блять) и да</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да (Agree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Положила деньги но их на карте нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не зачислил деньги на карту (_Local_Didnt_Money_On_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не дошел (платеж) (_Local_Not_Received)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус (_Local_Status)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">неправильная сумма/неверный процент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не правильные начисления (_Local_Incorrect_Accrual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не пришли проценты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне звонили, пытаются оформить кредит (то есть попытка)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мошенничество (_General_Fraud)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мошенничество (_Local_Fraud)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Меня обманули мошенники/ у меня мошеннические действия происходят</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить секретный код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настроить секретный код (_General_Setup_Secret_Code) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">корпоративная карта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Юрики (_General_Entity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрлица (_Local_Business)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как узнать зашел ли транш второй от банка/
+получить транш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не работает терминал / не проходит оплата по терминалу / не проходит оплата по эквайрингу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по задолженности/не гасится задолженность/ условия дату суммы платежа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Платеж по кредиту (_General_DIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредит (_Local_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платеж по кредитному продукту (_Local_DIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Секретный код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что такое секретный код (_General_About_Secret_Code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получается (или дословно Можно войти) (_Local_Can_Enter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплатить карту/Cколько я буду платить за свою карту в месяц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Условия (_Local_Conditions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Несанкционированные звонки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Мошенничество (_General_Fraud)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реклама (_Local_Advertising)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платеж в терминале</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Платеж (UV_Payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карта (_Local_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платил в АО, АМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение или -Онлайн (_Local_AM_Online)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возврат денег / возврат за покупку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Отмена платежа (_General_Cancel_Payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сколько я могу потратить денег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Лимит (UV_Limit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лимиты (_Local_Limits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не отображается перевод в операциях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус (_Local_Status)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разблокировать карты приложение интернет банк </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Запрос кодового слова (_General_Codeword_request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наличными в отделении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказ денег УКД (_Local_Zakaz_Dengi_UKD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">так мне надо подключить приложение на другом устройстве</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скачать/обновить (_Local_Download)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у меня был займа денег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General МФО (_General_MFO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МФО (_Local_Current_MFO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действующий займ (_Local_Current_MFO_2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">задолженнность по займу </t>
+  </si>
+  <si>
+    <t xml:space="preserve">мошеннические операции по моей карте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Мошенничество_UNI (_General_Fraud_UNI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">статус претензии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Статус претензии (_General_ClaimStat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узнать статус обращения (_Local_Claim_Status)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сервис банка/банковские услуги/продукты банка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Банковские услуги (_Local_Banking_Services)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мне нужен оператор для физ лиц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физлица (_Local_Person)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перенести номер/перейти со своим номеров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перенести номер (_Local_Number_Transfer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экстренный звонок/экстренно соедините с оператором/вопрос жизни и смерти</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экстренный вызов (_Local_Emergency_Call)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема с переводом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Проблемы с переводами (UV_RemittanceProblems)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема с переводом (_Local_Cant_Transfer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Связаться с оператором отделения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Оператор (_General_Operator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оператор (Operator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Связаться с отделением банка/мне нужен номер филиала в городе сосновый бор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Приветствие (_General_Hello)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подтвердить номер телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General_Подтверждение сим-карты (_General_Sim_Confirmation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменить / отключить / увеличить / уменьшить лимиты на переводы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вместо консультации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">какой статус кредитки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Готовность карт (_General_TAKE_CARD) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Готовность карт (CardReadiness) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">через сбербанк не получается провести оплату на  банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">банкомат завис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Проблемы с банкоматами (UV_ATM_Problems)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема с банкоматом (_Local_ATM_Problem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Банкоматы (_Local_ATM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скажите когда придут вознаграждение за пригласи друга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сколько остаток на депозитном счете ( вкладе)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Условия вклада (_Ge﻿neral_Condition_Vklad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Связь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мобильный оператор связи -Банка « Мобайл»
+(_General_MVNO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">свяжи/связаться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">я бы хотела поменять в личном кабинете номер телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Онлайн (_Local_AO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение (_Local_Application)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">восстановить логин и пароль банк клиенту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Временный пароль (_Local_Temp_Password)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отключить все платные услуги/ Отключить все услуги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Без вопроса (_General_Whithout_Question)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие у меня подключены услуги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вместо консультации на оператора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Списание резерв по счету</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Странные операции (UV_Strange_Operation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">узнать код для входа в онлайн приложение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет доступа (_Local_No_Access)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">возврат переплаты по субсидии ижс ладно слать по договору солодиловой кристиной сергеевной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Ипотека (_General_Mortgage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">я вайлдберрис переслала первый раз в две тысячи и второй раз две тысячи зачислено было три тысячи/сумма получателю пришла меньше чем перевел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как погасить досрочно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Досрочка УКД (_General_DOSROCHKA_UKD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как оформить (_Local_How_To_Create)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хочу хочу отказаться от рассрочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потому что 1000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">связь с оператором мошенники экстренный звонок </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(экстренный вызов + тематика - будет только тематика) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Мошенничество </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(_General_Fraud) Мошенничество (_Local_Fraud)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">через телефон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по зарплатной карте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Дебетовая карта (UV_Debitcard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дебетовая карта (_Local_Debit_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зарплатный (счет/ карта) (_Local_Salary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General_ИЗК (_General_IZK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> мобайл </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General_Мобильный оператор связи -Банка « Мобайл» (_General_MVNO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оплатить сотовую связь/мобильную</t>
+  </si>
+  <si>
+    <t xml:space="preserve">платеж (_Local_Payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О способах пополнения (_Local_Repay_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> смарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General_-Смарт (_General_-Smart)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> смарт (_Local_Smart)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">подписка кинопоиск/яндекс плюс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Подписки (_General_Podpiski)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подписки (_Local_Podpiski)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">что за подписка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Подписки (UV_Podpiski)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">объясните программу долгосрочных сбережений/ПДС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Вклад (_General_Deposit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заявка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кредитная заявка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Кредитные заявки (_General_KZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">все операторы заняты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сколько денег на ипотечном счете/баланс ипотечного счета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General График Платежей Ипотеки (_General_Mortgage_payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ипотека (_Local_Mortgage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Откуда задолженность</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> подписка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредит по кредитной карте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Кредитная карта (UV_CreditCard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредитная картаКредитка (_Local_Credit_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредитная карта (именно карта) (_Local_CreditCard_Karta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тарифы банка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ограничения/снять ограничения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Без вопроса (_General_Whithout_Question)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активировать приложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">связь с оператором нужна по осаго</t>
+  </si>
+  <si>
+    <t xml:space="preserve">азама займы могут через  банк сделать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оформить займ (_Local_New_MFO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сим карта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оператор связи (_Local_MVNO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">закрыть брокерский счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брокерский счет (_Local_Brokerage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Инвестиции (_General_Investing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полное погашение кредита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредит наличными (Про платеж) (_Local_DIS_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оплата налог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Налоги (_General_Nalogi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мне нужен оператор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пусть позвонит мне специалист</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Забыл пароль\сменить пароль я не помню пароль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">остаток узнать остаток денежных средств по кредиту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рассказать о досрочном погашении кредита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">я хочу связаться с оператором</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заявка на досрочное погашение ипотечного кредита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кредитная карта беспроцентный период снятие наличных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Проценты по КК (_General_Percent_Credit_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по поводу денег в рассрочку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Рассрочка по дебетовой карте (_General_Installment_Debit_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рассрочка (_Local_Installment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перенести карту в другое отделение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отмена доставки карты в отделение (_General_Cancel_Card_Branch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платеж в интернете не проходит </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Онлайн платеж не проходит </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неправильно снимают комиссию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">до скольки работают операторы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">снятие наличных в банкомате</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Банкоматы УКД (_General_ATM_UKD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снятие наличных (_Local_Cash_Withdrawal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полное погашение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полностью/по всем (_Local_Fully)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как мне погасить рассрочку частично двадцать тысяч </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частично (_Local_Partly) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другой платеж (_Local_Other_Payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Погасить рассрочку частично (досрочно)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда поступят деньги с момента возврата от ТСП прошло 15 дней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вышел срок (_Local_Passed_Deadline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задолженность по кредитной карте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">остаток узнать остаток по кредиту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поменяла сим карту не дает доступ в онлайн банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оплатила вчера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Выписка (_General_BankStatement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Движение денежных средств (_Local_Transactions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я не Василий +  вопрос </t>
+  </si>
+  <si>
+    <t xml:space="preserve">кредитный договор/договор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">договор по страховке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Страхование (UV_Insurance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страхование (_Local_Insurance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хочу поговорить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">статус дебетовой карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Готовность карт (_General_TAKE_CARD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">статус кредитной заявки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">положено ли мне бонусы за</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кэшбэк (_Local_Cashback)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бонусы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как человек позвонил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Мне звонили (_General_ReceivedCall)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мне нужен код для входа в свой кабинет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не работает в приложении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Досудебная претензия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Заявление (UV_Statement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пришлите реквизиты в смс/номер счета в смс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запрос кодового слова (_General_Codeword_request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">который оформлен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имеющийся кредит (_Local_Current_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нужен сотрудник по ипотеке/ипотечный менеджер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Оформление Ипотеки (_General_Reg_Mortage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не надо блокировать карту а у меня карта есть блин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет  (Disagree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потерял карту (_Local_Lost_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">все заблокировать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разблокировать карту (_General_UnBlock)</t>
   </si>
 </sst>
 </file>
@@ -134,7 +761,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,10 +788,58 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF343332"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001016"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF001016"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF343332"/>
+      <name val="Roboto"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -172,7 +847,7 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,12 +858,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color theme="0" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.25"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -217,7 +907,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,11 +920,71 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,6 +997,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF001016"/>
+      <rgbColor rgb="FF343332"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,40 +1237,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I163" activeCellId="0" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="8.63"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -464,119 +1291,3291 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="195.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="172.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="275.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="195.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="83.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H89" s="14"/>
+    </row>
+    <row r="90" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B127" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="195.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B128" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B129" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D129" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="E129" s="4"/>
+      <c r="F129" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="C130" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C131" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
+      <c r="B132" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H164" s="4"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
